--- a/qpcr-data.xlsx
+++ b/qpcr-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koudai/python_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DE8BB2-8BA7-8A48-B569-906EAAC6D5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300AD5CE-0527-9C49-BDBE-3E6C0F4E3C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{500CFEFC-ADE2-4E4F-9438-BE0A374CAE7E}"/>
   </bookViews>
@@ -35,34 +35,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>アクチン</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t>遺伝子3</t>
-    <rPh sb="0" eb="3">
-      <t xml:space="preserve">イデンシ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>遺伝子4</t>
-    <rPh sb="0" eb="3">
-      <t>イデ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>遺伝子5</t>
-    <rPh sb="0" eb="3">
-      <t xml:space="preserve">イデンシ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>N数を半角数字で入力→</t>
@@ -112,10 +91,6 @@
   </si>
   <si>
     <t>JAZ13</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T12</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -174,7 +149,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -208,15 +183,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -257,15 +223,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -296,13 +253,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -312,49 +266,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -674,7 +622,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -683,487 +631,338 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6">
+        <v>22.95</v>
+      </c>
+      <c r="B3" s="8">
+        <v>35.369999999999997</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="11"/>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="11">
-        <v>22.95</v>
-      </c>
-      <c r="B3" s="1">
-        <v>35.369999999999997</v>
-      </c>
-      <c r="C3" s="18">
-        <v>37.200000000000003</v>
-      </c>
-      <c r="D3" s="1">
-        <v>33.1</v>
-      </c>
-      <c r="E3" s="18">
-        <v>37.200000000000003</v>
-      </c>
-      <c r="F3" s="19">
-        <v>35.369999999999997</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="17" t="s">
+      <c r="M3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="17" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="11">
+      <c r="A4" s="6">
         <v>22.39</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="8">
         <v>33.15</v>
       </c>
-      <c r="C4" s="18">
-        <v>29.04</v>
-      </c>
-      <c r="D4" s="1">
-        <v>33.15</v>
-      </c>
-      <c r="E4" s="18">
-        <v>29.04</v>
-      </c>
-      <c r="F4" s="19">
-        <v>33.15</v>
-      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="11">
+      <c r="A5" s="6">
         <v>23.46</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="8">
         <v>33.4</v>
       </c>
-      <c r="C5" s="18">
-        <v>28.53</v>
-      </c>
-      <c r="D5" s="1">
-        <v>33.4</v>
-      </c>
-      <c r="E5" s="18">
-        <v>28.53</v>
-      </c>
-      <c r="F5" s="19">
-        <v>33.4</v>
-      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="11">
+      <c r="A6" s="6">
         <v>23.1</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="8">
         <v>33.159999999999997</v>
       </c>
-      <c r="C6" s="18">
-        <v>27.69</v>
-      </c>
-      <c r="D6" s="1">
-        <v>33.159999999999997</v>
-      </c>
-      <c r="E6" s="18">
-        <v>27.69</v>
-      </c>
-      <c r="F6" s="19">
-        <v>33.159999999999997</v>
-      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="11">
+      <c r="A7" s="6">
         <v>21.69</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="8">
         <v>32.47</v>
       </c>
-      <c r="C7" s="18">
-        <v>29.39</v>
-      </c>
-      <c r="D7" s="1">
-        <v>32.47</v>
-      </c>
-      <c r="E7" s="18">
-        <v>29.39</v>
-      </c>
-      <c r="F7" s="19">
-        <v>32.47</v>
-      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="8">
         <v>38</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="6">
+        <v>34.03</v>
+      </c>
+      <c r="B9" s="8">
+        <v>35.130000000000003</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="6">
+        <v>32.49</v>
+      </c>
+      <c r="B10" s="8">
+        <v>35.93</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="6">
+        <v>24.05</v>
+      </c>
+      <c r="B11" s="8">
+        <v>29.85</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="6">
+        <v>26.78</v>
+      </c>
+      <c r="B12" s="8">
+        <v>34.590000000000003</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6">
+        <v>23.17</v>
+      </c>
+      <c r="B13" s="8">
+        <v>32.26</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="6">
+        <v>29.18</v>
+      </c>
+      <c r="B14" s="8">
+        <v>36.03</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="6">
+        <v>22.58</v>
+      </c>
+      <c r="B15" s="8">
+        <v>32.22</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="6">
+        <v>22.67</v>
+      </c>
+      <c r="B16" s="8">
+        <v>30.79</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="6">
+        <v>22.37</v>
+      </c>
+      <c r="B17" s="8">
+        <v>34.29</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="6">
+        <v>23.08</v>
+      </c>
+      <c r="B18" s="8">
+        <v>30.36</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="6">
+        <v>30.29</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="1">
-        <v>38</v>
-      </c>
-      <c r="E8" s="18" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="19">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="11">
-        <v>34.03</v>
-      </c>
-      <c r="B9" s="1">
-        <v>35.130000000000003</v>
-      </c>
-      <c r="C9" s="18">
-        <v>31.86</v>
-      </c>
-      <c r="D9" s="1">
-        <v>35.130000000000003</v>
-      </c>
-      <c r="E9" s="18">
-        <v>31.86</v>
-      </c>
-      <c r="F9" s="19">
-        <v>35.130000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="11">
-        <v>32.49</v>
-      </c>
-      <c r="B10" s="1">
-        <v>35.93</v>
-      </c>
-      <c r="C10" s="18">
-        <v>32.31</v>
-      </c>
-      <c r="D10" s="1">
-        <v>35.93</v>
-      </c>
-      <c r="E10" s="18">
-        <v>32.31</v>
-      </c>
-      <c r="F10" s="19">
-        <v>35.93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="11">
-        <v>24.05</v>
-      </c>
-      <c r="B11" s="1">
-        <v>29.85</v>
-      </c>
-      <c r="C11" s="18">
-        <v>26.53</v>
-      </c>
-      <c r="D11" s="1">
-        <v>29.85</v>
-      </c>
-      <c r="E11" s="18">
-        <v>26.53</v>
-      </c>
-      <c r="F11" s="19">
-        <v>29.85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="11">
-        <v>26.78</v>
-      </c>
-      <c r="B12" s="1">
-        <v>34.590000000000003</v>
-      </c>
-      <c r="C12" s="18">
-        <v>29.29</v>
-      </c>
-      <c r="D12" s="1">
-        <v>34.590000000000003</v>
-      </c>
-      <c r="E12" s="18">
-        <v>29.29</v>
-      </c>
-      <c r="F12" s="19">
-        <v>34.590000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="11">
-        <v>23.17</v>
-      </c>
-      <c r="B13" s="1">
-        <v>32.26</v>
-      </c>
-      <c r="C13" s="18">
-        <v>27.92</v>
-      </c>
-      <c r="D13" s="1">
-        <v>32.26</v>
-      </c>
-      <c r="E13" s="18">
-        <v>27.92</v>
-      </c>
-      <c r="F13" s="19">
-        <v>32.26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="11">
-        <v>29.18</v>
-      </c>
-      <c r="B14" s="1">
-        <v>36.03</v>
-      </c>
-      <c r="C14" s="18">
-        <v>31.33</v>
-      </c>
-      <c r="D14" s="1">
-        <v>36.03</v>
-      </c>
-      <c r="E14" s="18">
-        <v>31.33</v>
-      </c>
-      <c r="F14" s="19">
-        <v>36.03</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="11">
-        <v>22.58</v>
-      </c>
-      <c r="B15" s="1">
-        <v>32.22</v>
-      </c>
-      <c r="C15" s="18">
-        <v>27.18</v>
-      </c>
-      <c r="D15" s="1">
-        <v>32.22</v>
-      </c>
-      <c r="E15" s="18">
-        <v>27.18</v>
-      </c>
-      <c r="F15" s="19">
-        <v>32.22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="11">
-        <v>22.67</v>
-      </c>
-      <c r="B16" s="1">
-        <v>30.79</v>
-      </c>
-      <c r="C16" s="18">
-        <v>29.02</v>
-      </c>
-      <c r="D16" s="1">
-        <v>30.79</v>
-      </c>
-      <c r="E16" s="18">
-        <v>29.02</v>
-      </c>
-      <c r="F16" s="19">
-        <v>30.79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="11">
-        <v>22.37</v>
-      </c>
-      <c r="B17" s="1">
-        <v>34.29</v>
-      </c>
-      <c r="C17" s="18">
-        <v>28.47</v>
-      </c>
-      <c r="D17" s="1">
-        <v>34.29</v>
-      </c>
-      <c r="E17" s="18">
-        <v>28.47</v>
-      </c>
-      <c r="F17" s="19">
-        <v>34.29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="11">
-        <v>23.08</v>
-      </c>
-      <c r="B18" s="1">
-        <v>30.36</v>
-      </c>
-      <c r="C18" s="18">
-        <v>25.85</v>
-      </c>
-      <c r="D18" s="1">
-        <v>30.36</v>
-      </c>
-      <c r="E18" s="18">
-        <v>25.85</v>
-      </c>
-      <c r="F18" s="19">
-        <v>30.36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="11">
-        <v>30.29</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="18">
-        <v>28.34</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="18">
-        <v>28.34</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>1</v>
-      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="11">
+      <c r="A21" s="6">
         <v>28.12</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="8">
         <v>34.75</v>
       </c>
-      <c r="C21" s="18">
-        <v>29.07</v>
-      </c>
-      <c r="D21" s="1">
-        <v>34.75</v>
-      </c>
-      <c r="E21" s="18">
-        <v>29.07</v>
-      </c>
-      <c r="F21" s="19">
-        <v>34.75</v>
-      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="11">
+      <c r="A22" s="13">
         <v>24.34</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="14">
         <v>31.62</v>
       </c>
-      <c r="C22" s="18">
-        <v>27.08</v>
-      </c>
-      <c r="D22" s="1">
-        <v>31.62</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="19">
-        <v>31.62</v>
-      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="13"/>
-      <c r="F23" s="12"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="13"/>
-      <c r="F24" s="12"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="13"/>
-      <c r="F25" s="12"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="13"/>
-      <c r="F26" s="12"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="16"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/qpcr-data.xlsx
+++ b/qpcr-data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koudai/python_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300AD5CE-0527-9C49-BDBE-3E6C0F4E3C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6BDEA4-7C3A-7449-98C2-BF1EE8521BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{500CFEFC-ADE2-4E4F-9438-BE0A374CAE7E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{500CFEFC-ADE2-4E4F-9438-BE0A374CAE7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,16 +36,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>アクチン</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t>N数を半角数字で入力→</t>
   </si>
   <si>
     <t>情報設定</t>
@@ -54,16 +52,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>サンプル名を左から入力→</t>
-    <rPh sb="6" eb="7">
-      <t xml:space="preserve">ヒダリカラ </t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>n</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>データ入力</t>
     <rPh sb="3" eb="5">
       <t>ニュウ</t>
@@ -94,7 +82,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>sample5</t>
+    <t>N数→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプル名→</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -149,7 +141,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -161,19 +153,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -253,7 +232,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -263,47 +242,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -619,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1EDFEDD-26F5-1F4E-A02B-850D016B5F73}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -631,333 +607,280 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6">
         <v>5</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="5">
+        <v>22.95</v>
+      </c>
+      <c r="B3" s="7">
+        <v>35.369999999999997</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="3">
+      <c r="D3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="6">
-        <v>22.95</v>
-      </c>
-      <c r="B3" s="8">
-        <v>35.369999999999997</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="11"/>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="7" t="s">
+      <c r="F3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="M3" s="15"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>22.39</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>33.15</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="11"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>23.46</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>33.4</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="11"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>23.1</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>33.159999999999997</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="11"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>21.69</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>32.47</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="11"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>38</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="11"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>34.03</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>35.130000000000003</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="11"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>32.49</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>35.93</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="11"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>24.05</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>29.85</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="11"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>26.78</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>34.590000000000003</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="11"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>23.17</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>32.26</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="11"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>29.18</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>36.03</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="11"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>22.58</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>32.22</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="11"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>22.67</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>30.79</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="11"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>22.37</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>34.29</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="11"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>23.08</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>30.36</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="11"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>30.29</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="11"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="11"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>28.12</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>34.75</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="11"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="13">
+      <c r="A22" s="11">
         <v>24.34</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="12">
         <v>31.62</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/qpcr-data.xlsx
+++ b/qpcr-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koudai/python_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6BDEA4-7C3A-7449-98C2-BF1EE8521BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3925BB-3A69-1844-92DA-EBDF70F14FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{500CFEFC-ADE2-4E4F-9438-BE0A374CAE7E}"/>
   </bookViews>

--- a/qpcr-data.xlsx
+++ b/qpcr-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koudai/python_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3925BB-3A69-1844-92DA-EBDF70F14FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF4DD6E-715C-0346-A036-8C955B155C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{500CFEFC-ADE2-4E4F-9438-BE0A374CAE7E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{500CFEFC-ADE2-4E4F-9438-BE0A374CAE7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,13 +45,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>情報設定</t>
-    <rPh sb="0" eb="4">
-      <t>ジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>データ入力</t>
     <rPh sb="3" eb="5">
       <t>ニュウ</t>
@@ -87,6 +80,13 @@
   </si>
   <si>
     <t>サンプル名→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -232,13 +232,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -278,8 +275,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,292 +592,292 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1EDFEDD-26F5-1F4E-A02B-850D016B5F73}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5">
+        <v>5</v>
+      </c>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4">
+        <v>22.95</v>
+      </c>
+      <c r="B3" s="6">
+        <v>35.369999999999997</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="E3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="5">
-        <v>22.95</v>
-      </c>
-      <c r="B3" s="7">
-        <v>35.369999999999997</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="15"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="5">
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4">
         <v>22.39</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>33.15</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="5">
+      <c r="C4" s="9"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4">
         <v>23.46</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>33.4</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="5">
+      <c r="C5" s="9"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4">
         <v>23.1</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>33.159999999999997</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="5">
+      <c r="C6" s="9"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4">
         <v>21.69</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>32.47</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="5" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>38</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="5">
+      <c r="C8" s="9"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4">
         <v>34.03</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>35.130000000000003</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="5">
+      <c r="C9" s="9"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="4">
         <v>32.49</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>35.93</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="5">
+      <c r="C10" s="9"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="4">
         <v>24.05</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>29.85</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="5">
+      <c r="C11" s="9"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="4">
         <v>26.78</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>34.590000000000003</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="5">
+      <c r="C12" s="9"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="4">
         <v>23.17</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>32.26</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="5">
+      <c r="C13" s="9"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="4">
         <v>29.18</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>36.03</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="5">
+      <c r="C14" s="9"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="4">
         <v>22.58</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>32.22</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="5">
+      <c r="C15" s="9"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="4">
         <v>22.67</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>30.79</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>22.37</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>34.29</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>23.08</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>30.36</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>30.29</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>28.12</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <v>34.75</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="11">
+      <c r="A22" s="10">
         <v>24.34</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="11">
         <v>31.62</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
